--- a/statistics/HistoricalDistanceData/historical_distance/Q60519458-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519458-en.xlsx
@@ -34,195 +34,195 @@
     <t>In Texas, an Emerging Problem for Democrats on the Border</t>
   </si>
   <si>
+    <t>Texas counties will have only one drop-off location for mail-in ballots</t>
+  </si>
+  <si>
+    <t>Texas Poll</t>
+  </si>
+  <si>
+    <t>Gov. Greg Abbott shutters drop-off locations for Texans voting by mail</t>
+  </si>
+  <si>
+    <t>Texas nears 2 million ballots cast as early voting surge continues</t>
+  </si>
+  <si>
+    <t>Young Voters are Breaking Turnout Records in Texas</t>
+  </si>
+  <si>
+    <t>New poll shows Biden within striking distance of Trump in Texas</t>
+  </si>
+  <si>
+    <t>Joe Biden trails Donald Trump by 5 points in Texas poll</t>
+  </si>
+  <si>
+    <t>Texas Supreme Court allows Harris County drive-thru voting to continue</t>
+  </si>
+  <si>
+    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+  </si>
+  <si>
+    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
+  </si>
+  <si>
+    <t>New Poll: Beto not Liked in Texas</t>
+  </si>
+  <si>
+    <t>Polls 2020-10-28</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Harris County reaches 1 million ballots cast during early voting, breaking record</t>
+  </si>
+  <si>
+    <t>Harris County continues to set records with second day of 100,000-plus early voters</t>
+  </si>
+  <si>
+    <t>Federal judge rejects GOP-led challenge to toss out over 127,000 drive-thru ballots in Harris County</t>
+  </si>
+  <si>
+    <t>Another day, another 100,000 Harris County ballots cast Friday</t>
+  </si>
+  <si>
+    <t>Travis County breaks another record on 2nd day of early voting</t>
+  </si>
+  <si>
+    <t>Appeals court upholds order against Abbott’s limit on ballot drop sites</t>
+  </si>
+  <si>
+    <t>Polls 2020-11-02 (larger states)</t>
+  </si>
+  <si>
+    <t>Texas Supreme Court rejects GOP attempt to toss drive-thru votes; federal case remains pending</t>
+  </si>
+  <si>
+    <t>Harris County hits 100,000 ballots cast for third day in a row</t>
+  </si>
+  <si>
+    <t>Dallas County sees record turnout for first day of early voting, Tarrant County falls just short of 2016</t>
+  </si>
+  <si>
+    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
+  </si>
+  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Harris County hits 100,000 ballots cast for third day in a row</t>
-  </si>
-  <si>
-    <t>Texas Supreme Court rejects GOP attempt to toss drive-thru votes; federal case remains pending</t>
-  </si>
-  <si>
-    <t>Federal judge rejects GOP-led challenge to toss out over 127,000 drive-thru ballots in Harris County</t>
-  </si>
-  <si>
-    <t>Texas counties will have only one drop-off location for mail-in ballots</t>
-  </si>
-  <si>
-    <t>Texas nears 2 million ballots cast as early voting surge continues</t>
-  </si>
-  <si>
-    <t>Extensive New Battleground Polling Shows Biden Gaining Ground</t>
-  </si>
-  <si>
-    <t>Dallas County sees record turnout for first day of early voting, Tarrant County falls just short of 2016</t>
+    <t>Voting and Elections</t>
+  </si>
+  <si>
+    <t>Harris County Shatters Single-Day Early Voting Record</t>
   </si>
   <si>
     <t>Fifth Circuit stays lower court ruling allowing multiple ballot dropoff sites</t>
   </si>
   <si>
-    <t>Another day, another 100,000 Harris County ballots cast Friday</t>
-  </si>
-  <si>
-    <t>Presidential Contest Tightens as Campaigns Move Into Eight-Week Home Stretch</t>
-  </si>
-  <si>
-    <t>Harris County continues to set records with second day of 100,000-plus early voters</t>
-  </si>
-  <si>
-    <t>Appeals court upholds order against Abbott’s limit on ballot drop sites</t>
-  </si>
-  <si>
-    <t>Harris County Shatters Single-Day Early Voting Record</t>
-  </si>
-  <si>
-    <t>Joe Biden trails Donald Trump by 5 points in Texas poll</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
+    <t>Williamson County voter turnout reaches 17% in third day of early voting</t>
   </si>
   <si>
     <t>Travis County early voting: 35,873 people cast ballots on first day</t>
   </si>
   <si>
-    <t>New poll shows Biden within striking distance of Trump in Texas</t>
-  </si>
-  <si>
-    <t>Gov. Greg Abbott shutters drop-off locations for Texans voting by mail</t>
-  </si>
-  <si>
-    <t>Polls 2020-11-02 (larger states)</t>
+    <t>2020 Texas: Biden and Beto in Dead Heat in Democratic Primary</t>
+  </si>
+  <si>
+    <t>Voting &amp; Elections Toolkits</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>New Poll: Beto not Liked in Texas</t>
-  </si>
-  <si>
-    <t>2020 Texas: Biden and Beto in Dead Heat in Democratic Primary</t>
-  </si>
-  <si>
-    <t>Harris County reaches 1 million ballots cast during early voting, breaking record</t>
-  </si>
-  <si>
-    <t>Polls 2020-10-28</t>
-  </si>
-  <si>
-    <t>Texas Poll</t>
-  </si>
-  <si>
-    <t>Texas Supreme Court allows Harris County drive-thru voting to continue</t>
-  </si>
-  <si>
-    <t>Travis County breaks another record on 2nd day of early voting</t>
-  </si>
-  <si>
-    <t>Voting and Elections</t>
-  </si>
-  <si>
-    <t>Williamson County voter turnout reaches 17% in third day of early voting</t>
-  </si>
-  <si>
-    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
-    <t>Young Voters are Breaking Turnout Records in Texas</t>
-  </si>
-  <si>
     <t>2020-11-07T10:00:15UTC</t>
   </si>
   <si>
+    <t>2020-10-27T23:15:25UTC</t>
+  </si>
+  <si>
+    <t>2020-11-01T18:14:24UTC</t>
+  </si>
+  <si>
+    <t>2020-10-01T22:04:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-15T05:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-02T17:28:38UTC</t>
+  </si>
+  <si>
+    <t>2020-06-23T11:45:52UTC</t>
+  </si>
+  <si>
+    <t>2020-04-25T15:12:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-22T23:50:00UTC</t>
+  </si>
+  <si>
+    <t>2019-02-09T14:00:04UTC</t>
+  </si>
+  <si>
+    <t>2020-09-09T10:00:38UTC</t>
+  </si>
+  <si>
+    <t>2019-01-29T19:05:49UTC</t>
+  </si>
+  <si>
+    <t>2020-10-28T00:00:00UTC</t>
+  </si>
+  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
+    <t>2020-10-23T18:54:19UTC</t>
+  </si>
+  <si>
+    <t>2020-10-14T23:48:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-02T18:40:26UTC</t>
+  </si>
+  <si>
+    <t>2020-10-16T23:12:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-14T21:06:27UTC</t>
+  </si>
+  <si>
+    <t>2020-10-23T23:44:57UTC</t>
+  </si>
+  <si>
+    <t>2020-11-01T19:14:00UTC</t>
+  </si>
+  <si>
     <t>2020-10-15T23:38:00UTC</t>
   </si>
   <si>
-    <t>2020-11-01T19:14:00UTC</t>
-  </si>
-  <si>
-    <t>2020-11-02T18:40:26UTC</t>
-  </si>
-  <si>
-    <t>2020-10-27T23:15:25UTC</t>
-  </si>
-  <si>
-    <t>2020-10-15T05:00:00UTC</t>
+    <t>2020-10-14T03:22:44UTC</t>
   </si>
   <si>
     <t>2020-07-27T00:00:00UTC</t>
   </si>
   <si>
-    <t>2020-10-14T03:22:44UTC</t>
+    <t>2020-10-13T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-10-10T19:47:58UTC</t>
   </si>
   <si>
-    <t>2020-10-16T23:12:00UTC</t>
-  </si>
-  <si>
-    <t>2020-09-09T10:00:38UTC</t>
-  </si>
-  <si>
-    <t>2020-10-14T23:48:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-23T23:44:57UTC</t>
-  </si>
-  <si>
-    <t>2020-10-13T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-04-25T15:12:00UTC</t>
+    <t>2020-10-16T00:14:25UTC</t>
   </si>
   <si>
     <t>2020-10-13T13:48:28UTC</t>
   </si>
   <si>
-    <t>2020-06-23T11:45:52UTC</t>
-  </si>
-  <si>
-    <t>2020-10-01T22:04:00UTC</t>
+    <t>2019-04-28T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2019-01-29T19:05:49UTC</t>
-  </si>
-  <si>
-    <t>2019-04-28T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-23T18:54:19UTC</t>
-  </si>
-  <si>
-    <t>2020-10-28T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-11-01T18:14:24UTC</t>
-  </si>
-  <si>
-    <t>2020-10-22T23:50:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-14T21:06:27UTC</t>
-  </si>
-  <si>
-    <t>2020-10-16T00:14:25UTC</t>
-  </si>
-  <si>
-    <t>2019-02-09T14:00:04UTC</t>
-  </si>
-  <si>
-    <t>2020-11-02T17:28:38UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -232,103 +232,103 @@
     <t>https://www.nytimes.com/2020/11/07/us/texas-democrats-red-blue.html</t>
   </si>
   <si>
+    <t>https://www.texastribune.org/2020/10/27/texas-voting-elections-mail-in-drop-off/</t>
+  </si>
+  <si>
+    <t>https://gravismarketing.com/texas-poll/</t>
+  </si>
+  <si>
+    <t>https://www.texastribune.org/2020/10/01/greg-abbott-texas-vote-mail/</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/news/politics/texas_legislature/article/Texas-nears-2-million-ballots-cast-as-early-15651146.php</t>
+  </si>
+  <si>
+    <t>https://www.texasobserver.org/young-voters-texas-2020/</t>
+  </si>
+  <si>
+    <t>https://progresstexas.org/blog/new-poll-shows-biden-within-striking-distance-trump-texas-0</t>
+  </si>
+  <si>
+    <t>https://www.texastribune.org/2020/04/25/donald-trump-joe-biden-texas-polling/</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Hidalgo-asks-Abbott-to-confirm-drive-thru-voting-15667812.php</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+  </si>
+  <si>
+    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
+  </si>
+  <si>
+    <t>http://politicselections.com/new-poll-beto-not-liked-in-texas/</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-10-28.html</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.chron.com/news/election2020/article/Harris-County-set-to-reach-1-million-ballots-cast-15670499.php</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/politics/election/article/harris-county-voter-turnout-long-lines-day-2-15647689.php</t>
+  </si>
+  <si>
+    <t>https://www.chron.com/news/election2020/article/drive-thru-voting-harris-county-republican-15694256.php</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Another-day-another-100-000-Harris-County-15654406.php</t>
+  </si>
+  <si>
+    <t>https://www.statesman.com/news/20201014/travis-county-breaks-another-record-on-2nd-day-of-early-voting</t>
+  </si>
+  <si>
+    <t>https://www.statesman.com/news/20201023/appeals-court-upholds-order-against-abbottrsquos-limit-on-ballot-drop-sites</t>
+  </si>
+  <si>
+    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Texas-Supreme-Court-rejects-GOP-attempt-to-toss-15692320.php</t>
+  </si>
+  <si>
+    <t>https://www.houstonchronicle.com/politics/election/article/Harris-County-on-pace-for-another-100-000-ballots-15650474.php</t>
+  </si>
+  <si>
+    <t>https://www.wfaa.com/article/news/politics/elections/tarrant-county-falls-just-short-of-2016-first-day-early-voting-total/287-d8a4e851-e6df-4f02-9d9b-4229b806f954</t>
+  </si>
+  <si>
+    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
+  </si>
+  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
   </si>
   <si>
-    <t>https://www.houstonchronicle.com/politics/election/article/Harris-County-on-pace-for-another-100-000-ballots-15650474.php</t>
-  </si>
-  <si>
-    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Texas-Supreme-Court-rejects-GOP-attempt-to-toss-15692320.php</t>
-  </si>
-  <si>
-    <t>https://www.chron.com/news/election2020/article/drive-thru-voting-harris-county-republican-15694256.php</t>
-  </si>
-  <si>
-    <t>https://www.texastribune.org/2020/10/27/texas-voting-elections-mail-in-drop-off/</t>
-  </si>
-  <si>
-    <t>https://www.houstonchronicle.com/news/politics/texas_legislature/article/Texas-nears-2-million-ballots-cast-as-early-15651146.php</t>
-  </si>
-  <si>
-    <t>https://morningconsult.com/form/july-presidential-battleground-state-polling/</t>
-  </si>
-  <si>
-    <t>https://www.wfaa.com/article/news/politics/elections/tarrant-county-falls-just-short-of-2016-first-day-early-voting-total/287-d8a4e851-e6df-4f02-9d9b-4229b806f954</t>
+    <t>https://guides.lib.utexas.edu/vote</t>
+  </si>
+  <si>
+    <t>https://www.houstonpublicmedia.org/articles/news/politics/election-2020/2020/10/13/383892/harris-county-shatters-single-day-early-voting-record/</t>
   </si>
   <si>
     <t>https://www.houstonchronicle.com/news/houston-texas/texas/article/AG-Paxton-files-appeal-after-judge-blocks-15636525.php</t>
   </si>
   <si>
-    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Another-day-another-100-000-Harris-County-15654406.php</t>
-  </si>
-  <si>
-    <t>https://morningconsult.com/2020/09/09/trump-biden-race-tightens-2020-polling/</t>
-  </si>
-  <si>
-    <t>https://www.houstonchronicle.com/politics/election/article/harris-county-voter-turnout-long-lines-day-2-15647689.php</t>
-  </si>
-  <si>
-    <t>https://www.statesman.com/news/20201023/appeals-court-upholds-order-against-abbottrsquos-limit-on-ballot-drop-sites</t>
-  </si>
-  <si>
-    <t>https://www.houstonpublicmedia.org/articles/news/politics/election-2020/2020/10/13/383892/harris-county-shatters-single-day-early-voting-record/</t>
-  </si>
-  <si>
-    <t>https://www.texastribune.org/2020/04/25/donald-trump-joe-biden-texas-polling/</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+    <t>https://www.statesman.com/news/20201015/williamson-county-voter-turnout-reaches-17-in-third-day-of-early-voting</t>
   </si>
   <si>
     <t>https://www.statesman.com/news/20201013/travis-county-early-voting-35873-people-cast-ballots-on-first-day</t>
   </si>
   <si>
-    <t>https://progresstexas.org/blog/new-poll-shows-biden-within-striking-distance-trump-texas-0</t>
-  </si>
-  <si>
-    <t>https://www.texastribune.org/2020/10/01/greg-abbott-texas-vote-mail/</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-11-02-large.html</t>
+    <t>http://emersonpolling.com/2019/04/28/2020-texas-biden-and-beto-in-dead-heat-in-democratic-primary/</t>
+  </si>
+  <si>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>http://politicselections.com/new-poll-beto-not-liked-in-texas/</t>
-  </si>
-  <si>
-    <t>http://emersonpolling.com/2019/04/28/2020-texas-biden-and-beto-in-dead-heat-in-democratic-primary/</t>
-  </si>
-  <si>
-    <t>https://www.chron.com/news/election2020/article/Harris-County-set-to-reach-1-million-ballots-cast-15670499.php</t>
-  </si>
-  <si>
-    <t>https://www.swayable.com/polls/2020-10-28.html</t>
-  </si>
-  <si>
-    <t>https://gravismarketing.com/texas-poll/</t>
-  </si>
-  <si>
-    <t>https://www.houstonchronicle.com/news/houston-texas/houston/article/Hidalgo-asks-Abbott-to-confirm-drive-thru-voting-15667812.php</t>
-  </si>
-  <si>
-    <t>https://www.statesman.com/news/20201014/travis-county-breaks-another-record-on-2nd-day-of-early-voting</t>
-  </si>
-  <si>
-    <t>https://guides.lib.utexas.edu/vote</t>
-  </si>
-  <si>
-    <t>https://www.statesman.com/news/20201015/williamson-county-voter-turnout-reaches-17-in-third-day-of-early-voting</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
-    <t>https://www.texasobserver.org/young-voters-texas-2020/</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
@@ -1016,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -1033,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -1050,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -1067,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -1101,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
@@ -1118,7 +1118,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -1135,7 +1135,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>69</v>
@@ -1152,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -1169,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -1186,7 +1186,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -1203,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -1220,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
@@ -1271,7 +1271,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
